--- a/outputs-HGR-r202/g__Eggerthella.xlsx
+++ b/outputs-HGR-r202/g__Eggerthella.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,7 +510,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26303.fa</t>
+          <t>even_MAG-GUT15850.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -533,7 +533,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26531.fa</t>
+          <t>even_MAG-GUT26303.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -556,7 +556,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3531.fa</t>
+          <t>even_MAG-GUT26531.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -579,21 +579,67 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT3531.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT68598.fa</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>s__Eggerthella lenta</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80819.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>s__Eggerthella lenta</t>
         </is>

--- a/outputs-HGR-r202/g__Eggerthella.xlsx
+++ b/outputs-HGR-r202/g__Eggerthella.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>s__Eggerthella lenta</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>s__Eggerthella lenta</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +524,11 @@
           <t>s__Eggerthella lenta</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -527,6 +547,11 @@
           <t>s__Eggerthella lenta</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +570,11 @@
           <t>s__Eggerthella lenta</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -563,6 +593,11 @@
           <t>s__Eggerthella lenta</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +616,11 @@
           <t>s__Eggerthella lenta</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -595,6 +635,11 @@
         <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>s__Eggerthella lenta</t>
         </is>

--- a/outputs-HGR-r202/g__Eggerthella.xlsx
+++ b/outputs-HGR-r202/g__Eggerthella.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -468,17 +463,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+        <v>22.3185113181394</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>s__Eggerthella lenta</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>s__Eggerthella lenta</t>
         </is>
@@ -491,17 +483,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+        <v>19.41846384564789</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>s__Eggerthella lenta</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>s__Eggerthella lenta</t>
         </is>
@@ -514,17 +503,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+        <v>9.479033267193529</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>s__Eggerthella lenta</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>s__Eggerthella lenta</t>
         </is>
@@ -537,17 +523,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+        <v>2.884868659424686</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
-        <is>
-          <t>s__Eggerthella lenta</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>s__Eggerthella lenta</t>
         </is>
@@ -560,17 +543,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
+        <v>7.269836897346863</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>s__Eggerthella lenta</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t>s__Eggerthella lenta</t>
         </is>
@@ -583,17 +563,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
+        <v>18.42405118119634</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>s__Eggerthella lenta</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t>s__Eggerthella lenta</t>
         </is>
@@ -606,17 +583,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
+        <v>20.64837580530254</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
-        <is>
-          <t>s__Eggerthella lenta</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t>s__Eggerthella lenta</t>
         </is>
@@ -629,17 +603,14 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
+        <v>27.7815495458109</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
-        <is>
-          <t>s__Eggerthella lenta</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>s__Eggerthella lenta</t>
         </is>
